--- a/studentsTask.xlsx
+++ b/studentsTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\task\JuneBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92393A6B-D815-4BBC-A387-14D725303919}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA8213F-BECB-43FD-8B4D-90E28BC5652F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{E9BD65CF-8B2C-45B8-ABD8-67D6BB79912D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>Task Name</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>Other ways of Parent - child communication and styles</t>
-  </si>
-  <si>
-    <t>31st</t>
   </si>
 </sst>
 </file>
@@ -767,7 +764,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F67CB74-59CB-42B9-9269-77FBA9E6FFCD}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -843,11 +840,6 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
